--- a/data/GeneExpressionDataUsed.xlsx
+++ b/data/GeneExpressionDataUsed.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D8E10-7459-FD4D-ABC6-FDBCB4A69D4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B52C20D-6C10-BB44-A526-DAF914F0C302}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Naive" sheetId="4" r:id="rId1"/>
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1475,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2213,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2881,7 +2881,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3390,8 +3390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
